--- a/Entregable 1/REGRI_V0.1_2018.xlsx
+++ b/Entregable 1/REGRI_V0.1_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\Incidencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desarrollo 2\Documentacion\Entregable 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" tabRatio="432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="432"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Riesgos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
   <si>
     <t>Situación de la estrategia</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>Rectificando el cronograma, pero aun no se termina</t>
+  </si>
+  <si>
+    <t>Error en el repositorio de GITHUB, no se podia conectar mediante la herramienta de GITBASH ni TORTOISE SVN</t>
+  </si>
+  <si>
+    <t>Se debe crear un nuevo repositorio para proceder proceder con la integracion continua.</t>
+  </si>
+  <si>
+    <t>Surgio un error de certificado Microsoft al intentar efectuar git pull y git push</t>
+  </si>
+  <si>
+    <t>Se creo un nuevo repositorio</t>
   </si>
 </sst>
 </file>
@@ -1929,6 +1941,9 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1982,9 +1997,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2035,7 +2047,33 @@
     <cellStyle name="Título de hoja" xfId="44"/>
     <cellStyle name="Total" xfId="45" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="16"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2183,16 +2221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>73368</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>10611</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38732</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>578207</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>883227</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2215,7 +2253,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73368" y="10611"/>
+          <a:off x="10265118" y="1283497"/>
           <a:ext cx="844495" cy="567596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2684,10 +2722,12 @@
     <outlinePr summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -2705,7 +2745,7 @@
     <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1"/>
+    <row r="1" spans="1:11" ht="46.5" hidden="1" customHeight="1"/>
     <row r="2" spans="1:11" s="87" customFormat="1" ht="30.75" customHeight="1">
       <c r="A2" s="101" t="s">
         <v>92</v>
@@ -2721,7 +2761,7 @@
       <c r="J2" s="102"/>
       <c r="K2" s="102"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="6.75" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2734,7 +2774,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+    <row r="4" spans="1:11" ht="6.75" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2786,10 +2826,10 @@
       </c>
       <c r="B7" s="108"/>
       <c r="C7" s="109"/>
-      <c r="D7" s="128">
-        <v>43355</v>
-      </c>
-      <c r="E7" s="128"/>
+      <c r="D7" s="110">
+        <v>43389</v>
+      </c>
+      <c r="E7" s="110"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="I7" s="78"/>
@@ -2802,11 +2842,11 @@
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="109"/>
-      <c r="D8" s="110">
+      <c r="D8" s="111">
         <f>AVERAGE(F12:F17)/4.5</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="I8" s="78"/>
@@ -3082,6 +3122,42 @@
       </c>
       <c r="K17" s="92" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45">
+      <c r="A18" s="86">
+        <v>7</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="95">
+        <v>1</v>
+      </c>
+      <c r="F18" s="95">
+        <f t="shared" ref="F18" si="1">D18*E18</f>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="92" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3103,43 +3179,51 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J12)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J17)))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("Desaparecio",J18)))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Incurrido (Problema)",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -3150,16 +3234,16 @@
       <formula1>Linea_Servicio</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18">
       <formula1>Categoria_Origen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D18">
       <formula1>"0.1,0.3,0.5,0.7,0.9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E18">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J18">
       <formula1>Est_riesgo</formula1>
     </dataValidation>
   </dataValidations>
@@ -10568,38 +10652,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="82" t="s">
         <v>65</v>
       </c>
       <c r="O2" s="23"/>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="116"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
       <c r="O3" s="23"/>
-      <c r="P3" s="116" t="s">
+      <c r="P3" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="117"/>
+      <c r="Q3" s="118"/>
       <c r="R3" s="64" t="s">
         <v>46</v>
       </c>
@@ -10608,16 +10692,16 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="22.5" customHeight="1" thickBot="1">
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="124"/>
+      <c r="M4" s="125"/>
       <c r="N4" s="47" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="23"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
       <c r="R4" s="51" t="s">
         <v>45</v>
       </c>
@@ -10626,7 +10710,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="26.25" customHeight="1" thickBot="1">
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="121" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -10679,7 +10763,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="27.75" customHeight="1">
-      <c r="C6" s="121"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
@@ -10730,7 +10814,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="C7" s="121"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
@@ -10781,7 +10865,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="26.25" customHeight="1" thickBot="1">
-      <c r="C8" s="121"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
@@ -10832,7 +10916,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="21.75" customHeight="1" thickBot="1">
-      <c r="C9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
@@ -10965,14 +11049,14 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="81" t="s">
         <v>64</v>
       </c>
